--- a/Examples/input_data_formats/cyteseer_3.0.1.0_voltage_Analysis_and_QC/cyteseer_3.0.1.0_voltage_Analysis_and_QC.xlsx
+++ b/Examples/input_data_formats/cyteseer_3.0.1.0_voltage_Analysis_and_QC/cyteseer_3.0.1.0_voltage_Analysis_and_QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.arjunan\wrk\KICA\Examples\input_data_formats\cyteseer_3.0.1.0_voltage_Analysis_and_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15AAFD9-D31C-4C76-BE3B-0DD32A32FDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A6FF8E-BE1C-4EFA-B5E6-08863F0330FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3326" yWindow="3326" windowWidth="16457" windowHeight="9565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QC Passed Pulses" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>File_Name</t>
   </si>
   <si>
     <t>cyteseer_3.0.1.0_voltage.csv</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>pulseDetection_signalType</t>
+  </si>
+  <si>
+    <t>stimuliPeriod_ms</t>
+  </si>
+  <si>
+    <t>stimuliNumber</t>
+  </si>
+  <si>
+    <t>stimulationStart_ms</t>
+  </si>
+  <si>
+    <t>stimulusPulseDuration_ms</t>
+  </si>
+  <si>
+    <t>pulseDetection_thresholdPercentage</t>
+  </si>
+  <si>
+    <t>pulseDetection_numberOfSecondsAtStartToIgnore</t>
+  </si>
+  <si>
+    <t>pulseDetection_removeFalsePulses_PeakThresholdPercentage</t>
+  </si>
+  <si>
+    <t>pulseDetection_removeFalsePulses_DurationThresholdPercentage</t>
+  </si>
+  <si>
+    <t>pulseDetection_denoise_waveletName</t>
+  </si>
+  <si>
+    <t>pulseDetection_denoise_waveletNumber</t>
+  </si>
+  <si>
+    <t>pulseDetection_denoise_waveletThresholdRule</t>
+  </si>
+  <si>
+    <t>pulseAnalysis_apDurations</t>
+  </si>
+  <si>
+    <t>pulseAnalysis_apdIsEndPointApproximatedSymbol</t>
+  </si>
+  <si>
+    <t>pulseAnalysis_pulseStartOnStimulusDetectionDelta_ms</t>
+  </si>
+  <si>
+    <t>pulseAnalysis_pulseStartOnStimulusDetectionSymbol</t>
+  </si>
+  <si>
+    <t>pulseAnalysis_pulseStartPointType</t>
+  </si>
+  <si>
+    <t>visualize_showVisualizedCells</t>
+  </si>
+  <si>
+    <t>visualize_saveVisualizedCellsToFiles</t>
+  </si>
+  <si>
+    <t>qc_isQC_Required</t>
+  </si>
+  <si>
+    <t>qc_SNR_Threshold</t>
+  </si>
+  <si>
+    <t>qc_writeFiguresToQCReportFile</t>
+  </si>
+  <si>
+    <t>qc_checkForSNR</t>
+  </si>
+  <si>
+    <t>qc_checkForNoPulsesDetected</t>
+  </si>
+  <si>
+    <t>qc_checkForPulsesMissingStimuli</t>
+  </si>
+  <si>
+    <t>qc_checkForPulsesSpanMoreThanOneStimulus</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>SignalType.Voltage</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>"bior"</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>"Hard"</t>
+  </si>
+  <si>
+    <t>[30  50  75  90  95]</t>
+  </si>
+  <si>
+    <t>"*"</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>"^"</t>
+  </si>
+  <si>
+    <t>PulseStartPointType.ActivationPoint</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Well_Date</t>
@@ -63,9 +201,6 @@
   </si>
   <si>
     <t>PulseStartOnStimulus</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Pulse_End_ms</t>
@@ -230,21 +365,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>213065</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD1408A-C6FC-0F3D-BF89-8B740F928E49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC94179-FD0F-3395-A390-0B60DD19AC7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,7 +401,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4626428"/>
+          <a:off x="0" y="9993085"/>
           <a:ext cx="4621779" cy="3701143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -280,21 +415,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>329854</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A7A59C-86BC-ECCD-692B-21812F3A7E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81F2AC6-2238-739E-A5F7-81816E00525B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -316,7 +451,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6966857" y="4626428"/>
+          <a:off x="6966857" y="9993085"/>
           <a:ext cx="4575283" cy="3701143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -330,13 +465,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>166569</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -344,7 +479,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8325232F-0ECF-90FE-8CF4-FED34698D9E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144AD4C1-1C35-5A06-30A2-08E1D2227454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +501,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10918372"/>
+          <a:off x="0" y="16285029"/>
           <a:ext cx="4575283" cy="3701143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -380,13 +515,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>329854</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -394,7 +529,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FF0CA7-E647-3B46-1A82-068AD2986FCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49570D37-A43C-7CAC-96A2-534BDA6C8CE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -416,7 +551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6966857" y="10918372"/>
+          <a:off x="6966857" y="16285029"/>
           <a:ext cx="4575283" cy="3701143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -430,13 +565,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>166569</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -444,7 +579,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EBE39D-99A7-522A-2790-F01C55906A56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C7694E-4607-F73A-1D97-D80F4B14FB7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,7 +601,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17210314"/>
+          <a:off x="0" y="22576971"/>
           <a:ext cx="4575283" cy="3701143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -480,13 +615,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>329854</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -494,7 +629,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F75E14-2991-902A-656D-550E9A6954D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F089FD-9C1A-74FD-28A0-24B17F548842}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,7 +651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6966857" y="17210314"/>
+          <a:off x="6966857" y="22576971"/>
           <a:ext cx="4575283" cy="3701143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -846,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,2332 +1008,2548 @@
     <col min="27" max="27" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>45617.557870370372</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>37.747730773011398</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>34.88759327605441</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>22.177687564572324</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s">
+        <v>75</v>
+      </c>
+      <c r="V43" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>106</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1821.82</v>
+      </c>
+      <c r="E44">
+        <v>2882.88</v>
+      </c>
+      <c r="F44">
+        <v>1061.0600000000002</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>527.20113098724926</v>
+      </c>
+      <c r="I44">
+        <v>620.5988524343752</v>
+      </c>
+      <c r="J44">
+        <v>715.13389739421871</v>
+      </c>
+      <c r="K44">
+        <v>820.3151585310012</v>
+      </c>
+      <c r="L44">
+        <v>923.85939603911754</v>
+      </c>
+      <c r="R44">
+        <v>0.64268120063921186</v>
+      </c>
+      <c r="S44">
+        <v>1889.0345686361256</v>
+      </c>
+      <c r="T44">
+        <v>1851.85</v>
+      </c>
+      <c r="U44">
+        <v>2142.14</v>
+      </c>
+      <c r="V44">
+        <v>290.29000000000002</v>
+      </c>
+      <c r="W44">
+        <v>25.257879104620532</v>
+      </c>
+      <c r="X44">
+        <v>25.257879104620532</v>
+      </c>
+      <c r="Y44">
+        <v>7.4583457144641541E-2</v>
+      </c>
+      <c r="Z44">
+        <v>1891.8899999999999</v>
+      </c>
+      <c r="AA44">
+        <v>6.5330386647707623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>106</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4984.9799999999996</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>6086.08</v>
+      </c>
+      <c r="F45">
+        <v>1101.1000000000004</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>544.35915159792421</v>
+      </c>
+      <c r="I45">
+        <v>628.209355498587</v>
+      </c>
+      <c r="J45">
+        <v>719.24015704101407</v>
+      </c>
+      <c r="K45">
+        <v>815.36250541685285</v>
+      </c>
+      <c r="L45">
+        <v>890.17678487877663</v>
+      </c>
+      <c r="R45">
+        <v>0.66762838367165467</v>
+      </c>
+      <c r="S45">
+        <v>5020.2742281204537</v>
+      </c>
+      <c r="T45">
+        <v>4984.9799999999996</v>
+      </c>
+      <c r="U45">
+        <v>5215.21</v>
+      </c>
+      <c r="V45">
+        <v>230.23</v>
+      </c>
+      <c r="W45">
+        <v>24.326988740565035</v>
+      </c>
+      <c r="X45">
+        <v>24.326988740565035</v>
+      </c>
+      <c r="Y45">
+        <v>9.694518333088141E-2</v>
+      </c>
+      <c r="Z45">
+        <v>5025.0199999999995</v>
+      </c>
+      <c r="AA45">
+        <v>6.6640468850370151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>6976.97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46">
+        <v>7927.92</v>
+      </c>
+      <c r="F46">
+        <v>950.94999999999982</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>504.41365206132576</v>
+      </c>
+      <c r="I46">
+        <v>595.04996964064662</v>
+      </c>
+      <c r="J46">
+        <v>675.69034811496419</v>
+      </c>
+      <c r="K46">
+        <v>767.34506353758616</v>
+      </c>
+      <c r="L46">
+        <v>831.79842961400811</v>
+      </c>
+      <c r="R46">
+        <v>0.65734918491023631</v>
+      </c>
+      <c r="S46">
+        <v>7017.6587849087027</v>
+      </c>
+      <c r="T46">
+        <v>6976.97</v>
+      </c>
+      <c r="U46">
+        <v>7247.24</v>
+      </c>
+      <c r="V46">
+        <v>270.27</v>
+      </c>
+      <c r="W46">
+        <v>22.040740634798226</v>
+      </c>
+      <c r="X46">
+        <v>22.040740634798226</v>
+      </c>
+      <c r="Y46">
+        <v>7.6307121552079721E-2</v>
+      </c>
+      <c r="Z46">
+        <v>7017.01</v>
+      </c>
+      <c r="AA46">
+        <v>5.327348341914548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>106</v>
+      </c>
+      <c r="B47">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C47">
+        <v>8668.66</v>
+      </c>
+      <c r="E47">
+        <v>9719.7099999999991</v>
+      </c>
+      <c r="F47">
+        <v>1051.0499999999993</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <v>478.87880346587525</v>
+      </c>
+      <c r="I47">
+        <v>564.61156972910271</v>
+      </c>
+      <c r="J47">
+        <v>650.89974855211892</v>
+      </c>
+      <c r="K47">
+        <v>738.69011342735837</v>
+      </c>
+      <c r="L47">
+        <v>797.65571096258793</v>
+      </c>
+      <c r="R47">
+        <v>0.64828105150072168</v>
+      </c>
+      <c r="S47">
+        <v>8767.4800852145236</v>
+      </c>
+      <c r="T47">
+        <v>8668.66</v>
+      </c>
+      <c r="U47">
+        <v>9019.01</v>
+      </c>
+      <c r="V47">
+        <v>350.34999999999997</v>
+      </c>
+      <c r="W47">
+        <v>22.185009204762487</v>
+      </c>
+      <c r="X47">
+        <v>22.185009204762487</v>
+      </c>
+      <c r="Y47">
+        <v>5.958216114091032E-2</v>
+      </c>
+      <c r="Z47">
+        <v>8768.76</v>
+      </c>
+      <c r="AA47">
+        <v>5.8006050885947564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>106</v>
+      </c>
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>106</v>
-      </c>
-      <c r="B10">
-        <v>37.747730773011398</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>115</v>
-      </c>
-      <c r="B11">
-        <v>34.88759327605441</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>117</v>
-      </c>
-      <c r="B12">
-        <v>22.177687564572324</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W14" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>106</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1821.82</v>
-      </c>
-      <c r="E15">
-        <v>2882.88</v>
-      </c>
-      <c r="F15">
-        <v>1061.0600000000002</v>
-      </c>
-      <c r="G15">
+      <c r="C48">
+        <v>10360.35</v>
+      </c>
+      <c r="E48">
+        <v>11291.28</v>
+      </c>
+      <c r="F48">
+        <v>930.93000000000029</v>
+      </c>
+      <c r="G48">
         <v>-1</v>
       </c>
-      <c r="H15">
-        <v>527.20113098724926</v>
-      </c>
-      <c r="I15">
-        <v>620.5988524343752</v>
-      </c>
-      <c r="J15">
-        <v>715.13389739421871</v>
-      </c>
-      <c r="K15">
-        <v>820.3151585310012</v>
-      </c>
-      <c r="L15">
-        <v>923.85939603911754</v>
-      </c>
-      <c r="R15">
-        <v>0.64268120063921186</v>
-      </c>
-      <c r="S15">
-        <v>1889.0345686361256</v>
-      </c>
-      <c r="T15">
-        <v>1851.85</v>
-      </c>
-      <c r="U15">
-        <v>2142.14</v>
-      </c>
-      <c r="V15">
-        <v>290.29000000000002</v>
-      </c>
-      <c r="W15">
-        <v>25.257879104620532</v>
-      </c>
-      <c r="X15">
-        <v>25.257879104620532</v>
-      </c>
-      <c r="Y15">
-        <v>7.4583457144641541E-2</v>
-      </c>
-      <c r="Z15">
-        <v>1891.8899999999999</v>
-      </c>
-      <c r="AA15">
-        <v>6.5330386647707623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>106</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4984.9799999999996</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>6086.08</v>
-      </c>
-      <c r="F16">
-        <v>1101.1000000000004</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>544.35915159792421</v>
-      </c>
-      <c r="I16">
-        <v>628.209355498587</v>
-      </c>
-      <c r="J16">
-        <v>719.24015704101407</v>
-      </c>
-      <c r="K16">
-        <v>815.36250541685285</v>
-      </c>
-      <c r="L16">
-        <v>890.17678487877663</v>
-      </c>
-      <c r="R16">
-        <v>0.66762838367165467</v>
-      </c>
-      <c r="S16">
-        <v>5020.2742281204537</v>
-      </c>
-      <c r="T16">
-        <v>4984.9799999999996</v>
-      </c>
-      <c r="U16">
-        <v>5215.21</v>
-      </c>
-      <c r="V16">
-        <v>230.23</v>
-      </c>
-      <c r="W16">
-        <v>24.326988740565035</v>
-      </c>
-      <c r="X16">
-        <v>24.326988740565035</v>
-      </c>
-      <c r="Y16">
-        <v>9.694518333088141E-2</v>
-      </c>
-      <c r="Z16">
-        <v>5025.0199999999995</v>
-      </c>
-      <c r="AA16">
-        <v>6.6640468850370151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>106</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>6976.97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>7927.92</v>
-      </c>
-      <c r="F17">
-        <v>950.94999999999982</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>504.41365206132576</v>
-      </c>
-      <c r="I17">
-        <v>595.04996964064662</v>
-      </c>
-      <c r="J17">
-        <v>675.69034811496419</v>
-      </c>
-      <c r="K17">
-        <v>767.34506353758616</v>
-      </c>
-      <c r="L17">
-        <v>831.79842961400811</v>
-      </c>
-      <c r="R17">
-        <v>0.65734918491023631</v>
-      </c>
-      <c r="S17">
-        <v>7017.6587849087027</v>
-      </c>
-      <c r="T17">
-        <v>6976.97</v>
-      </c>
-      <c r="U17">
-        <v>7247.24</v>
-      </c>
-      <c r="V17">
-        <v>270.27</v>
-      </c>
-      <c r="W17">
-        <v>22.040740634798226</v>
-      </c>
-      <c r="X17">
-        <v>22.040740634798226</v>
-      </c>
-      <c r="Y17">
-        <v>7.6307121552079721E-2</v>
-      </c>
-      <c r="Z17">
-        <v>7017.01</v>
-      </c>
-      <c r="AA17">
-        <v>5.327348341914548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>106</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>8668.66</v>
-      </c>
-      <c r="E18">
-        <v>9719.7099999999991</v>
-      </c>
-      <c r="F18">
-        <v>1051.0499999999993</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-      <c r="H18">
-        <v>478.87880346587525</v>
-      </c>
-      <c r="I18">
-        <v>564.61156972910271</v>
-      </c>
-      <c r="J18">
-        <v>650.89974855211892</v>
-      </c>
-      <c r="K18">
-        <v>738.69011342735837</v>
-      </c>
-      <c r="L18">
-        <v>797.65571096258793</v>
-      </c>
-      <c r="R18">
-        <v>0.64828105150072168</v>
-      </c>
-      <c r="S18">
-        <v>8767.4800852145236</v>
-      </c>
-      <c r="T18">
-        <v>8668.66</v>
-      </c>
-      <c r="U18">
-        <v>9019.01</v>
-      </c>
-      <c r="V18">
-        <v>350.34999999999997</v>
-      </c>
-      <c r="W18">
-        <v>22.185009204762487</v>
-      </c>
-      <c r="X18">
-        <v>22.185009204762487</v>
-      </c>
-      <c r="Y18">
-        <v>5.958216114091032E-2</v>
-      </c>
-      <c r="Z18">
-        <v>8768.76</v>
-      </c>
-      <c r="AA18">
-        <v>5.8006050885947564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>106</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
+      <c r="H48">
+        <v>468.93340497388652</v>
+      </c>
+      <c r="I48">
+        <v>547.95661927966376</v>
+      </c>
+      <c r="J48">
+        <v>628.74612066272255</v>
+      </c>
+      <c r="K48">
+        <v>713.74823774817503</v>
+      </c>
+      <c r="L48">
+        <v>761.89721902509473</v>
+      </c>
+      <c r="R48">
+        <v>0.65700113873953381</v>
+      </c>
+      <c r="S48">
+        <v>10469.633136665367</v>
+      </c>
+      <c r="T48">
         <v>10360.35</v>
       </c>
-      <c r="E19">
-        <v>11291.28</v>
-      </c>
-      <c r="F19">
-        <v>930.93000000000029</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19">
-        <v>468.93340497388652</v>
-      </c>
-      <c r="I19">
-        <v>547.95661927966376</v>
-      </c>
-      <c r="J19">
-        <v>628.74612066272255</v>
-      </c>
-      <c r="K19">
-        <v>713.74823774817503</v>
-      </c>
-      <c r="L19">
-        <v>761.89721902509473</v>
-      </c>
-      <c r="R19">
-        <v>0.65700113873953381</v>
-      </c>
-      <c r="S19">
-        <v>10469.633136665367</v>
-      </c>
-      <c r="T19">
-        <v>10360.35</v>
-      </c>
-      <c r="U19">
+      <c r="U48">
         <v>10690.68</v>
       </c>
-      <c r="V19">
+      <c r="V48">
         <v>330.33</v>
       </c>
-      <c r="W19">
+      <c r="W48">
         <v>20.934541209742033</v>
       </c>
-      <c r="X19">
+      <c r="X48">
         <v>20.934541209742033</v>
       </c>
-      <c r="Y19">
+      <c r="Y48">
         <v>6.003889564510563E-2</v>
       </c>
-      <c r="Z19">
+      <c r="Z48">
         <v>10470.459999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AA48">
         <v>5.4601448184293719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>106</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>11951.94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>12922.91</v>
-      </c>
-      <c r="F20">
-        <v>970.96999999999935</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>433.76061215854492</v>
-      </c>
-      <c r="I20">
-        <v>507.80883850625708</v>
-      </c>
-      <c r="J20">
-        <v>597.51058056320232</v>
-      </c>
-      <c r="K20">
-        <v>683.67801776040039</v>
-      </c>
-      <c r="L20">
-        <v>730.36444762531789</v>
-      </c>
-      <c r="R20">
-        <v>0.63445159986196786</v>
-      </c>
-      <c r="S20">
-        <v>12017.427539267908</v>
-      </c>
-      <c r="T20">
-        <v>11951.94</v>
-      </c>
-      <c r="U20">
-        <v>12212.199999999999</v>
-      </c>
-      <c r="V20">
-        <v>260.26</v>
-      </c>
-      <c r="W20">
-        <v>21.045481131451584</v>
-      </c>
-      <c r="X20">
-        <v>21.045481131451584</v>
-      </c>
-      <c r="Y20">
-        <v>7.4556689953451341E-2</v>
-      </c>
-      <c r="Z20">
-        <v>12022.01</v>
-      </c>
-      <c r="AA20">
-        <v>5.7662901701326241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>106</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>13002.99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>13823.81</v>
-      </c>
-      <c r="F21">
-        <v>820.81999999999971</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>412.22953053163235</v>
-      </c>
-      <c r="I21">
-        <v>470.01663176446579</v>
-      </c>
-      <c r="J21">
-        <v>548.65961533748964</v>
-      </c>
-      <c r="K21">
-        <v>670.7010226999131</v>
-      </c>
-      <c r="L21">
-        <v>706.46744930649197</v>
-      </c>
-      <c r="R21">
-        <v>0.61462487245389696</v>
-      </c>
-      <c r="S21">
-        <v>13029.532245218559</v>
-      </c>
-      <c r="T21">
-        <v>13002.99</v>
-      </c>
-      <c r="U21">
-        <v>13243.23</v>
-      </c>
-      <c r="V21">
-        <v>240.24</v>
-      </c>
-      <c r="W21">
-        <v>18.717579592862787</v>
-      </c>
-      <c r="X21">
-        <v>18.717579592862787</v>
-      </c>
-      <c r="Y21">
-        <v>7.3868055996064316E-2</v>
-      </c>
-      <c r="Z21">
-        <v>13033.02</v>
-      </c>
-      <c r="AA21">
-        <v>6.5469365659855177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>106</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>14434.42</v>
-      </c>
-      <c r="E22">
-        <v>15315.3</v>
-      </c>
-      <c r="F22">
-        <v>880.8799999999992</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-      <c r="H22">
-        <v>457.65176757329471</v>
-      </c>
-      <c r="I22">
-        <v>523.06829408615306</v>
-      </c>
-      <c r="J22">
-        <v>607.3723118334517</v>
-      </c>
-      <c r="K22">
-        <v>703.10649874837395</v>
-      </c>
-      <c r="L22">
-        <v>777.97284730023455</v>
-      </c>
-      <c r="R22">
-        <v>0.65089964093345409</v>
-      </c>
-      <c r="S22">
-        <v>14495.660064909946</v>
-      </c>
-      <c r="T22">
-        <v>14434.42</v>
-      </c>
-      <c r="U22">
-        <v>14654.64</v>
-      </c>
-      <c r="V22">
-        <v>220.22</v>
-      </c>
-      <c r="W22">
-        <v>19.719654836281112</v>
-      </c>
-      <c r="X22">
-        <v>19.719654836281112</v>
-      </c>
-      <c r="Y22">
-        <v>8.0336044809191709E-2</v>
-      </c>
-      <c r="Z22">
-        <v>14504.49</v>
-      </c>
-      <c r="AA22">
-        <v>4.5164402820555374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>106</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>15875.859999999999</v>
-      </c>
-      <c r="E23">
-        <v>16766.75</v>
-      </c>
-      <c r="F23">
-        <v>890.88999999999942</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>439.68202455154892</v>
-      </c>
-      <c r="I23">
-        <v>514.89807073254156</v>
-      </c>
-      <c r="J23">
-        <v>601.09192073995916</v>
-      </c>
-      <c r="K23">
-        <v>680.58530728847825</v>
-      </c>
-      <c r="L23">
-        <v>734.1674762609523</v>
-      </c>
-      <c r="R23">
-        <v>0.6460351404047896</v>
-      </c>
-      <c r="S23">
-        <v>15944.572276833536</v>
-      </c>
-      <c r="T23">
-        <v>15875.859999999999</v>
-      </c>
-      <c r="U23">
-        <v>16096.08</v>
-      </c>
-      <c r="V23">
-        <v>220.22</v>
-      </c>
-      <c r="W23">
-        <v>19.08673005969818</v>
-      </c>
-      <c r="X23">
-        <v>19.08673005969818</v>
-      </c>
-      <c r="Y23">
-        <v>7.7179937329426088E-2</v>
-      </c>
-      <c r="Z23">
-        <v>15945.93</v>
-      </c>
-      <c r="AA23">
-        <v>4.5560888520710527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>106</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>17697.68</v>
-      </c>
-      <c r="E24">
-        <v>18688.669999999998</v>
-      </c>
-      <c r="F24">
-        <v>990.98999999999796</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-      <c r="H24">
-        <v>428.93566929998923</v>
-      </c>
-      <c r="I24">
-        <v>508.88149135109398</v>
-      </c>
-      <c r="J24">
-        <v>580.33164060381171</v>
-      </c>
-      <c r="K24">
-        <v>658.25976666062127</v>
-      </c>
-      <c r="L24">
-        <v>703.06643307189938</v>
-      </c>
-      <c r="R24">
-        <v>0.65162066865486468</v>
-      </c>
-      <c r="S24">
-        <v>17844.117717912581</v>
-      </c>
-      <c r="T24">
-        <v>17807.79</v>
-      </c>
-      <c r="U24">
-        <v>18038.02</v>
-      </c>
-      <c r="V24">
-        <v>230.23</v>
-      </c>
-      <c r="W24">
-        <v>19.909151255503641</v>
-      </c>
-      <c r="X24">
-        <v>19.909151255503641</v>
-      </c>
-      <c r="Y24">
-        <v>7.4770603824685589E-2</v>
-      </c>
-      <c r="Z24">
-        <v>17847.829999999998</v>
-      </c>
-      <c r="AA24">
-        <v>5.1334845013973665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" t="s">
-        <v>23</v>
-      </c>
-      <c r="O48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>26</v>
-      </c>
-      <c r="R48" t="s">
-        <v>27</v>
-      </c>
-      <c r="S48" t="s">
-        <v>28</v>
-      </c>
-      <c r="T48" t="s">
-        <v>29</v>
-      </c>
-      <c r="U48" t="s">
-        <v>30</v>
-      </c>
-      <c r="V48" t="s">
-        <v>31</v>
-      </c>
-      <c r="W48" t="s">
-        <v>32</v>
-      </c>
-      <c r="X48" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>1761.76</v>
+        <v>11951.94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>2842.84</v>
+        <v>12922.91</v>
       </c>
       <c r="F49">
-        <v>1081.0800000000002</v>
+        <v>970.96999999999935</v>
       </c>
       <c r="G49">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>461.89851301325677</v>
+        <v>433.76061215854492</v>
       </c>
       <c r="I49">
-        <v>565.03972692956825</v>
+        <v>507.80883850625708</v>
       </c>
       <c r="J49">
-        <v>702.23326666920639</v>
+        <v>597.51058056320232</v>
       </c>
       <c r="K49">
-        <v>773.42030971122915</v>
+        <v>683.67801776040039</v>
       </c>
       <c r="L49">
-        <v>822.15981268065468</v>
+        <v>730.36444762531789</v>
       </c>
       <c r="R49">
-        <v>0.59721539144183466</v>
+        <v>0.63445159986196786</v>
       </c>
       <c r="S49">
-        <v>1885.0531393625977</v>
+        <v>12017.427539267908</v>
       </c>
       <c r="T49">
-        <v>1791.79</v>
+        <v>11951.94</v>
       </c>
       <c r="U49">
-        <v>1961.96</v>
+        <v>12212.199999999999</v>
       </c>
       <c r="V49">
-        <v>170.17</v>
+        <v>260.26</v>
       </c>
       <c r="W49">
-        <v>18.232086078483942</v>
+        <v>21.045481131451584</v>
       </c>
       <c r="X49">
-        <v>18.232086078483942</v>
+        <v>21.045481131451584</v>
       </c>
       <c r="Y49">
-        <v>9.3818326502540142E-2</v>
+        <v>7.4556689953451341E-2</v>
       </c>
       <c r="Z49">
-        <v>1891.8899999999999</v>
+        <v>12022.01</v>
       </c>
       <c r="AA49">
-        <v>5.5135248003087938</v>
+        <v>5.7662901701326241</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>5005</v>
+        <v>13002.99</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E50">
-        <v>5945.94</v>
+        <v>13823.81</v>
       </c>
       <c r="F50">
-        <v>940.9399999999996</v>
+        <v>820.81999999999971</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>461.00805752576497</v>
+        <v>412.22953053163235</v>
       </c>
       <c r="I50">
-        <v>582.65353749798453</v>
+        <v>470.01663176446579</v>
       </c>
       <c r="J50">
-        <v>672.82737766776597</v>
+        <v>548.65961533748964</v>
       </c>
       <c r="K50">
-        <v>734.14172416062127</v>
+        <v>670.7010226999131</v>
       </c>
       <c r="L50">
-        <v>787.21456426532347</v>
+        <v>706.46744930649197</v>
       </c>
       <c r="R50">
-        <v>0.62795512413200205</v>
+        <v>0.61462487245389696</v>
       </c>
       <c r="S50">
-        <v>5022.7892125468543</v>
+        <v>13029.532245218559</v>
       </c>
       <c r="T50">
-        <v>5005</v>
+        <v>13002.99</v>
       </c>
       <c r="U50">
-        <v>5175.17</v>
+        <v>13243.23</v>
       </c>
       <c r="V50">
-        <v>170.17</v>
+        <v>240.24</v>
       </c>
       <c r="W50">
-        <v>18.03977883926509</v>
+        <v>18.717579592862787</v>
       </c>
       <c r="X50">
-        <v>18.03977883926509</v>
+        <v>18.717579592862787</v>
       </c>
       <c r="Y50">
-        <v>9.6495591978031564E-2</v>
+        <v>7.3868055996064316E-2</v>
       </c>
       <c r="Z50">
-        <v>5025.0199999999995</v>
+        <v>13033.02</v>
       </c>
       <c r="AA50">
-        <v>6.241009740411541</v>
+        <v>6.5469365659855177</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>6966.96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
+        <v>14434.42</v>
       </c>
       <c r="E51">
-        <v>7887.88</v>
+        <v>15315.3</v>
       </c>
       <c r="F51">
-        <v>920.92000000000007</v>
+        <v>880.8799999999992</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H51">
-        <v>381.88311371015016</v>
+        <v>457.65176757329471</v>
       </c>
       <c r="I51">
-        <v>515.04065311973375</v>
+        <v>523.06829408615306</v>
       </c>
       <c r="J51">
-        <v>629.32724611614094</v>
+        <v>607.3723118334517</v>
       </c>
       <c r="K51">
-        <v>701.72489787557186</v>
+        <v>703.10649874837395</v>
       </c>
       <c r="L51">
-        <v>743.6991387602817</v>
+        <v>777.97284730023455</v>
       </c>
       <c r="R51">
-        <v>0.54420630487286026</v>
+        <v>0.65089964093345409</v>
       </c>
       <c r="S51">
-        <v>7003.5624931544316</v>
+        <v>14495.660064909946</v>
       </c>
       <c r="T51">
-        <v>6966.96</v>
+        <v>14434.42</v>
       </c>
       <c r="U51">
-        <v>7037.03</v>
+        <v>14654.64</v>
       </c>
       <c r="V51">
-        <v>70.069999999999993</v>
+        <v>220.22</v>
       </c>
       <c r="W51">
-        <v>17.870229181175191</v>
+        <v>19.719654836281112</v>
       </c>
       <c r="X51">
-        <v>17.870229181175191</v>
+        <v>19.719654836281112</v>
       </c>
       <c r="Y51">
-        <v>0.22920728021663547</v>
+        <v>8.0336044809191709E-2</v>
       </c>
       <c r="Z51">
-        <v>7007</v>
+        <v>14504.49</v>
       </c>
       <c r="AA51">
-        <v>6.3998962839772897</v>
+        <v>4.5164402820555374</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>8738.73</v>
+        <v>15875.859999999999</v>
       </c>
       <c r="E52">
-        <v>9509.5</v>
+        <v>16766.75</v>
       </c>
       <c r="F52">
-        <v>770.77000000000044</v>
+        <v>890.88999999999942</v>
       </c>
       <c r="G52">
         <v>-1</v>
       </c>
       <c r="H52">
-        <v>381.27864784742894</v>
+        <v>439.68202455154892</v>
       </c>
       <c r="I52">
-        <v>530.2262982343118</v>
+        <v>514.89807073254156</v>
       </c>
       <c r="J52">
-        <v>609.23385922323803</v>
+        <v>601.09192073995916</v>
       </c>
       <c r="K52">
-        <v>686.86563658466366</v>
+        <v>680.58530728847825</v>
       </c>
       <c r="L52">
-        <v>719.65316689240888</v>
+        <v>734.1674762609523</v>
       </c>
       <c r="R52">
-        <v>0.55509932006975893</v>
+        <v>0.6460351404047896</v>
       </c>
       <c r="S52">
-        <v>8763.5795252952666</v>
+        <v>15944.572276833536</v>
       </c>
       <c r="T52">
-        <v>8738.73</v>
+        <v>15875.859999999999</v>
       </c>
       <c r="U52">
-        <v>8848.84</v>
+        <v>16096.08</v>
       </c>
       <c r="V52">
-        <v>110.11</v>
+        <v>220.22</v>
       </c>
       <c r="W52">
-        <v>16.429929943749304</v>
+        <v>19.08673005969818</v>
       </c>
       <c r="X52">
-        <v>16.429929943749304</v>
+        <v>19.08673005969818</v>
       </c>
       <c r="Y52">
-        <v>0.13401013131125034</v>
+        <v>7.7179937329426088E-2</v>
       </c>
       <c r="Z52">
-        <v>8768.76</v>
+        <v>15945.93</v>
       </c>
       <c r="AA52">
-        <v>6.2533267440295948</v>
+        <v>4.5560888520710527</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>10440.43</v>
+        <v>17697.68</v>
       </c>
       <c r="E53">
-        <v>11331.32</v>
+        <v>18688.669999999998</v>
       </c>
       <c r="F53">
-        <v>890.88999999999942</v>
+        <v>990.98999999999796</v>
       </c>
       <c r="G53">
         <v>-1</v>
       </c>
       <c r="H53">
+        <v>428.93566929998923</v>
+      </c>
+      <c r="I53">
+        <v>508.88149135109398</v>
+      </c>
+      <c r="J53">
+        <v>580.33164060381171</v>
+      </c>
+      <c r="K53">
+        <v>658.25976666062127</v>
+      </c>
+      <c r="L53">
+        <v>703.06643307189938</v>
+      </c>
+      <c r="R53">
+        <v>0.65162066865486468</v>
+      </c>
+      <c r="S53">
+        <v>17844.117717912581</v>
+      </c>
+      <c r="T53">
+        <v>17807.79</v>
+      </c>
+      <c r="U53">
+        <v>18038.02</v>
+      </c>
+      <c r="V53">
+        <v>230.23</v>
+      </c>
+      <c r="W53">
+        <v>19.909151255503641</v>
+      </c>
+      <c r="X53">
+        <v>19.909151255503641</v>
+      </c>
+      <c r="Y53">
+        <v>7.4770603824685589E-2</v>
+      </c>
+      <c r="Z53">
+        <v>17847.829999999998</v>
+      </c>
+      <c r="AA53">
+        <v>5.1334845013973665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" t="s">
+        <v>63</v>
+      </c>
+      <c r="J77" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" t="s">
+        <v>65</v>
+      </c>
+      <c r="L77" t="s">
+        <v>66</v>
+      </c>
+      <c r="M77" t="s">
+        <v>67</v>
+      </c>
+      <c r="N77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R77" t="s">
+        <v>72</v>
+      </c>
+      <c r="S77" t="s">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>115</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1761.76</v>
+      </c>
+      <c r="E78">
+        <v>2842.84</v>
+      </c>
+      <c r="F78">
+        <v>1081.0800000000002</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>461.89851301325677</v>
+      </c>
+      <c r="I78">
+        <v>565.03972692956825</v>
+      </c>
+      <c r="J78">
+        <v>702.23326666920639</v>
+      </c>
+      <c r="K78">
+        <v>773.42030971122915</v>
+      </c>
+      <c r="L78">
+        <v>822.15981268065468</v>
+      </c>
+      <c r="R78">
+        <v>0.59721539144183466</v>
+      </c>
+      <c r="S78">
+        <v>1885.0531393625977</v>
+      </c>
+      <c r="T78">
+        <v>1791.79</v>
+      </c>
+      <c r="U78">
+        <v>1961.96</v>
+      </c>
+      <c r="V78">
+        <v>170.17</v>
+      </c>
+      <c r="W78">
+        <v>18.232086078483942</v>
+      </c>
+      <c r="X78">
+        <v>18.232086078483942</v>
+      </c>
+      <c r="Y78">
+        <v>9.3818326502540142E-2</v>
+      </c>
+      <c r="Z78">
+        <v>1891.8899999999999</v>
+      </c>
+      <c r="AA78">
+        <v>5.5135248003087938</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>115</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>5005</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79">
+        <v>5945.94</v>
+      </c>
+      <c r="F79">
+        <v>940.9399999999996</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>461.00805752576497</v>
+      </c>
+      <c r="I79">
+        <v>582.65353749798453</v>
+      </c>
+      <c r="J79">
+        <v>672.82737766776597</v>
+      </c>
+      <c r="K79">
+        <v>734.14172416062127</v>
+      </c>
+      <c r="L79">
+        <v>787.21456426532347</v>
+      </c>
+      <c r="R79">
+        <v>0.62795512413200205</v>
+      </c>
+      <c r="S79">
+        <v>5022.7892125468543</v>
+      </c>
+      <c r="T79">
+        <v>5005</v>
+      </c>
+      <c r="U79">
+        <v>5175.17</v>
+      </c>
+      <c r="V79">
+        <v>170.17</v>
+      </c>
+      <c r="W79">
+        <v>18.03977883926509</v>
+      </c>
+      <c r="X79">
+        <v>18.03977883926509</v>
+      </c>
+      <c r="Y79">
+        <v>9.6495591978031564E-2</v>
+      </c>
+      <c r="Z79">
+        <v>5025.0199999999995</v>
+      </c>
+      <c r="AA79">
+        <v>6.241009740411541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>115</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>6966.96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80">
+        <v>7887.88</v>
+      </c>
+      <c r="F80">
+        <v>920.92000000000007</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>381.88311371015016</v>
+      </c>
+      <c r="I80">
+        <v>515.04065311973375</v>
+      </c>
+      <c r="J80">
+        <v>629.32724611614094</v>
+      </c>
+      <c r="K80">
+        <v>701.72489787557186</v>
+      </c>
+      <c r="L80">
+        <v>743.6991387602817</v>
+      </c>
+      <c r="R80">
+        <v>0.54420630487286026</v>
+      </c>
+      <c r="S80">
+        <v>7003.5624931544316</v>
+      </c>
+      <c r="T80">
+        <v>6966.96</v>
+      </c>
+      <c r="U80">
+        <v>7037.03</v>
+      </c>
+      <c r="V80">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="W80">
+        <v>17.870229181175191</v>
+      </c>
+      <c r="X80">
+        <v>17.870229181175191</v>
+      </c>
+      <c r="Y80">
+        <v>0.22920728021663547</v>
+      </c>
+      <c r="Z80">
+        <v>7007</v>
+      </c>
+      <c r="AA80">
+        <v>6.3998962839772897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>115</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>8738.73</v>
+      </c>
+      <c r="E81">
+        <v>9509.5</v>
+      </c>
+      <c r="F81">
+        <v>770.77000000000044</v>
+      </c>
+      <c r="G81">
+        <v>-1</v>
+      </c>
+      <c r="H81">
+        <v>381.27864784742894</v>
+      </c>
+      <c r="I81">
+        <v>530.2262982343118</v>
+      </c>
+      <c r="J81">
+        <v>609.23385922323803</v>
+      </c>
+      <c r="K81">
+        <v>686.86563658466366</v>
+      </c>
+      <c r="L81">
+        <v>719.65316689240888</v>
+      </c>
+      <c r="R81">
+        <v>0.55509932006975893</v>
+      </c>
+      <c r="S81">
+        <v>8763.5795252952666</v>
+      </c>
+      <c r="T81">
+        <v>8738.73</v>
+      </c>
+      <c r="U81">
+        <v>8848.84</v>
+      </c>
+      <c r="V81">
+        <v>110.11</v>
+      </c>
+      <c r="W81">
+        <v>16.429929943749304</v>
+      </c>
+      <c r="X81">
+        <v>16.429929943749304</v>
+      </c>
+      <c r="Y81">
+        <v>0.13401013131125034</v>
+      </c>
+      <c r="Z81">
+        <v>8768.76</v>
+      </c>
+      <c r="AA81">
+        <v>6.2533267440295948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>115</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>10440.43</v>
+      </c>
+      <c r="E82">
+        <v>11331.32</v>
+      </c>
+      <c r="F82">
+        <v>890.88999999999942</v>
+      </c>
+      <c r="G82">
+        <v>-1</v>
+      </c>
+      <c r="H82">
         <v>387.11244866656887</v>
       </c>
-      <c r="I53">
+      <c r="I82">
         <v>500.18504479699862</v>
       </c>
-      <c r="J53">
+      <c r="J82">
         <v>610.1851061917223</v>
       </c>
-      <c r="K53">
+      <c r="K82">
         <v>674.75578333818328</v>
       </c>
-      <c r="L53">
+      <c r="L82">
         <v>756.60181862524814</v>
       </c>
-      <c r="R53">
+      <c r="R82">
         <v>0.57370749273378308</v>
       </c>
-      <c r="S53">
+      <c r="S82">
         <v>10467.470918139354</v>
       </c>
-      <c r="T53">
+      <c r="T82">
         <v>10440.43</v>
       </c>
-      <c r="U53">
+      <c r="U82">
         <v>10580.57</v>
       </c>
-      <c r="V53">
+      <c r="V82">
         <v>140.13999999999999</v>
       </c>
-      <c r="W53">
+      <c r="W82">
         <v>16.515160825104346</v>
       </c>
-      <c r="X53">
+      <c r="X82">
         <v>16.515160825104346</v>
       </c>
-      <c r="Y53">
+      <c r="Y82">
         <v>0.10135437563008817</v>
       </c>
-      <c r="Z53">
+      <c r="Z82">
         <v>10470.459999999999</v>
       </c>
-      <c r="AA53">
+      <c r="AA82">
         <v>4.2510982657010858</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>115</v>
-      </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>11941.93</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54">
-        <v>12812.8</v>
-      </c>
-      <c r="F54">
-        <v>870.86999999999898</v>
-      </c>
-      <c r="G54">
-        <v>8</v>
-      </c>
-      <c r="H54">
-        <v>383.20160226473274</v>
-      </c>
-      <c r="I54">
-        <v>478.61350952947896</v>
-      </c>
-      <c r="J54">
-        <v>578.65421285651303</v>
-      </c>
-      <c r="K54">
-        <v>643.56087214482</v>
-      </c>
-      <c r="L54">
-        <v>686.74333556408783</v>
-      </c>
-      <c r="R54">
-        <v>0.59543955956741446</v>
-      </c>
-      <c r="S54">
-        <v>12012.955514505133</v>
-      </c>
-      <c r="T54">
-        <v>11941.93</v>
-      </c>
-      <c r="U54">
-        <v>12072.06</v>
-      </c>
-      <c r="V54">
-        <v>130.13</v>
-      </c>
-      <c r="W54">
-        <v>15.598341714304675</v>
-      </c>
-      <c r="X54">
-        <v>15.598341714304675</v>
-      </c>
-      <c r="Y54">
-        <v>0.10423952823474154</v>
-      </c>
-      <c r="Z54">
-        <v>12022.01</v>
-      </c>
-      <c r="AA54">
-        <v>5.1484902554603558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>115</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>13002.99</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55">
-        <v>13803.789999999999</v>
-      </c>
-      <c r="F55">
-        <v>800.80000000000109</v>
-      </c>
-      <c r="G55">
-        <v>9</v>
-      </c>
-      <c r="H55">
-        <v>321.12402486925504</v>
-      </c>
-      <c r="I55">
-        <v>415.50563864926227</v>
-      </c>
-      <c r="J55">
-        <v>502.59428759700523</v>
-      </c>
-      <c r="K55">
-        <v>577.38138409097769</v>
-      </c>
-      <c r="L55">
-        <v>642.54831823613938</v>
-      </c>
-      <c r="R55">
-        <v>0.55617315299285031</v>
-      </c>
-      <c r="S55">
-        <v>13027.605917361931</v>
-      </c>
-      <c r="T55">
-        <v>13002.99</v>
-      </c>
-      <c r="U55">
-        <v>13093.08</v>
-      </c>
-      <c r="V55">
-        <v>90.09</v>
-      </c>
-      <c r="W55">
-        <v>15.215738729663126</v>
-      </c>
-      <c r="X55">
-        <v>15.215738729663126</v>
-      </c>
-      <c r="Y55">
-        <v>0.1682574684832428</v>
-      </c>
-      <c r="Z55">
-        <v>13033.02</v>
-      </c>
-      <c r="AA55">
-        <v>7.76754065514967</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>115</v>
-      </c>
-      <c r="B56">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>14434.42</v>
-      </c>
-      <c r="E56">
-        <v>15225.21</v>
-      </c>
-      <c r="F56">
-        <v>790.78999999999905</v>
-      </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>383.09724700754367</v>
-      </c>
-      <c r="I56">
-        <v>467.0656632665989</v>
-      </c>
-      <c r="J56">
-        <v>560.17422202708622</v>
-      </c>
-      <c r="K56">
-        <v>628.14543064522513</v>
-      </c>
-      <c r="L56">
-        <v>678.22645978555931</v>
-      </c>
-      <c r="R56">
-        <v>0.60988622748402355</v>
-      </c>
-      <c r="S56">
-        <v>14490.884327018615</v>
-      </c>
-      <c r="T56">
-        <v>14434.42</v>
-      </c>
-      <c r="U56">
-        <v>14624.61</v>
-      </c>
-      <c r="V56">
-        <v>190.19</v>
-      </c>
-      <c r="W56">
-        <v>15.376514455045596</v>
-      </c>
-      <c r="X56">
-        <v>15.376514455045596</v>
-      </c>
-      <c r="Y56">
-        <v>7.0171250114468897E-2</v>
-      </c>
-      <c r="Z56">
-        <v>14504.49</v>
-      </c>
-      <c r="AA56">
-        <v>4.1330064743730759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>115</v>
-      </c>
-      <c r="B57">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>15865.85</v>
-      </c>
-      <c r="E57">
-        <v>16736.72</v>
-      </c>
-      <c r="F57">
-        <v>870.8700000000008</v>
-      </c>
-      <c r="G57">
-        <v>-1</v>
-      </c>
-      <c r="H57">
-        <v>374.70408132734099</v>
-      </c>
-      <c r="I57">
-        <v>484.31437727767826</v>
-      </c>
-      <c r="J57">
-        <v>571.42565069282045</v>
-      </c>
-      <c r="K57">
-        <v>656.82835555102281</v>
-      </c>
-      <c r="L57">
-        <v>706.56669720503396</v>
-      </c>
-      <c r="R57">
-        <v>0.57047488611084141</v>
-      </c>
-      <c r="S57">
-        <v>15938.265238095202</v>
-      </c>
-      <c r="T57">
-        <v>15865.85</v>
-      </c>
-      <c r="U57">
-        <v>15995.98</v>
-      </c>
-      <c r="V57">
-        <v>130.13</v>
-      </c>
-      <c r="W57">
-        <v>14.615163645831194</v>
-      </c>
-      <c r="X57">
-        <v>14.615163645831194</v>
-      </c>
-      <c r="Y57">
-        <v>9.8514835713665816E-2</v>
-      </c>
-      <c r="Z57">
-        <v>15945.93</v>
-      </c>
-      <c r="AA57">
-        <v>3.392019752016985</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>115</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>17807.79</v>
-      </c>
-      <c r="E58">
-        <v>18538.52</v>
-      </c>
-      <c r="F58">
-        <v>730.72999999999956</v>
-      </c>
-      <c r="G58">
-        <v>-1</v>
-      </c>
-      <c r="H58">
-        <v>342.78528132727303</v>
-      </c>
-      <c r="I58">
-        <v>443.36702356463417</v>
-      </c>
-      <c r="J58">
-        <v>543.92227860968489</v>
-      </c>
-      <c r="K58">
-        <v>617.03154315937832</v>
-      </c>
-      <c r="L58">
-        <v>648.47030696449053</v>
-      </c>
-      <c r="R58">
-        <v>0.555539315821869</v>
-      </c>
-      <c r="S58">
-        <v>17841.14316309823</v>
-      </c>
-      <c r="T58">
-        <v>17807.79</v>
-      </c>
-      <c r="U58">
-        <v>17907.89</v>
-      </c>
-      <c r="V58">
-        <v>100.1</v>
-      </c>
-      <c r="W58">
-        <v>15.018639311623305</v>
-      </c>
-      <c r="X58">
-        <v>15.018639311623305</v>
-      </c>
-      <c r="Y58">
-        <v>0.12569856888210718</v>
-      </c>
-      <c r="Z58">
-        <v>17847.829999999998</v>
-      </c>
-      <c r="AA58">
-        <v>4.8007696928821009</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" t="s">
-        <v>18</v>
-      </c>
-      <c r="J82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K82" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" t="s">
-        <v>21</v>
-      </c>
-      <c r="M82" t="s">
-        <v>22</v>
-      </c>
-      <c r="N82" t="s">
-        <v>23</v>
-      </c>
-      <c r="O82" t="s">
-        <v>24</v>
-      </c>
-      <c r="P82" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>26</v>
-      </c>
-      <c r="R82" t="s">
-        <v>27</v>
-      </c>
-      <c r="S82" t="s">
-        <v>28</v>
-      </c>
-      <c r="T82" t="s">
-        <v>29</v>
-      </c>
-      <c r="U82" t="s">
-        <v>30</v>
-      </c>
-      <c r="V82" t="s">
-        <v>31</v>
-      </c>
-      <c r="W82" t="s">
-        <v>32</v>
-      </c>
-      <c r="X82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>1791.79</v>
+        <v>11941.93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
       </c>
       <c r="E83">
-        <v>2982.98</v>
+        <v>12812.8</v>
       </c>
       <c r="F83">
-        <v>1191.19</v>
+        <v>870.86999999999898</v>
       </c>
       <c r="G83">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>517.67422273259683</v>
+        <v>383.20160226473274</v>
       </c>
       <c r="I83">
-        <v>596.1354219481052</v>
+        <v>478.61350952947896</v>
       </c>
       <c r="J83">
-        <v>723.23533588027908</v>
+        <v>578.65421285651303</v>
       </c>
       <c r="K83">
-        <v>824.82076537294017</v>
+        <v>643.56087214482</v>
       </c>
       <c r="L83">
-        <v>965.21101943673307</v>
+        <v>686.74333556408783</v>
       </c>
       <c r="R83">
-        <v>0.62762025941300359</v>
+        <v>0.59543955956741446</v>
       </c>
       <c r="S83">
-        <v>1888.2556932482369</v>
+        <v>12012.955514505133</v>
       </c>
       <c r="T83">
-        <v>1791.79</v>
+        <v>11941.93</v>
       </c>
       <c r="U83">
-        <v>2072.0700000000002</v>
+        <v>12072.06</v>
       </c>
       <c r="V83">
-        <v>280.27999999999997</v>
+        <v>130.13</v>
       </c>
       <c r="W83">
-        <v>17.548127941254389</v>
+        <v>15.598341714304675</v>
       </c>
       <c r="X83">
-        <v>17.548127941254389</v>
+        <v>15.598341714304675</v>
       </c>
       <c r="Y83">
-        <v>5.9416610903985381E-2</v>
+        <v>0.10423952823474154</v>
       </c>
       <c r="Z83">
-        <v>1891.8899999999999</v>
+        <v>12022.01</v>
       </c>
       <c r="AA83">
-        <v>6.7172860642509651</v>
+        <v>5.1484902554603558</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>4994.99</v>
+        <v>13002.99</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E84">
-        <v>6006</v>
+        <v>13803.789999999999</v>
       </c>
       <c r="F84">
-        <v>1011.0100000000002</v>
+        <v>800.80000000000109</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H84">
-        <v>514.19688863533497</v>
+        <v>321.12402486925504</v>
       </c>
       <c r="I84">
-        <v>616.31232534467449</v>
+        <v>415.50563864926227</v>
       </c>
       <c r="J84">
-        <v>711.3242174174394</v>
+        <v>502.59428759700523</v>
       </c>
       <c r="K84">
-        <v>829.77293776876684</v>
+        <v>577.38138409097769</v>
       </c>
       <c r="L84">
-        <v>904.03255715973262</v>
+        <v>642.54831823613938</v>
       </c>
       <c r="R84">
-        <v>0.61968384991922498</v>
+        <v>0.55617315299285031</v>
       </c>
       <c r="S84">
-        <v>5018.0291876433366</v>
+        <v>13027.605917361931</v>
       </c>
       <c r="T84">
-        <v>4994.99</v>
+        <v>13002.99</v>
       </c>
       <c r="U84">
-        <v>5075.07</v>
+        <v>13093.08</v>
       </c>
       <c r="V84">
-        <v>80.08</v>
+        <v>90.09</v>
       </c>
       <c r="W84">
-        <v>17.507507243424218</v>
+        <v>15.215738729663126</v>
       </c>
       <c r="X84">
-        <v>17.507507243424218</v>
+        <v>15.215738729663126</v>
       </c>
       <c r="Y84">
-        <v>0.20921357442836608</v>
+        <v>0.1682574684832428</v>
       </c>
       <c r="Z84">
-        <v>5025.0199999999995</v>
+        <v>13033.02</v>
       </c>
       <c r="AA84">
-        <v>5.2319045005626768</v>
+        <v>7.76754065514967</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>6996.99</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
+        <v>14434.42</v>
       </c>
       <c r="E85">
-        <v>7937.9299999999994</v>
+        <v>15225.21</v>
       </c>
       <c r="F85">
-        <v>940.94000000000051</v>
+        <v>790.78999999999905</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H85">
-        <v>487.43443641553222</v>
+        <v>383.09724700754367</v>
       </c>
       <c r="I85">
-        <v>555.98662140638146</v>
+        <v>467.0656632665989</v>
       </c>
       <c r="J85">
-        <v>659.25013309951032</v>
+        <v>560.17422202708622</v>
       </c>
       <c r="K85">
-        <v>787.81157120969965</v>
+        <v>628.14543064522513</v>
       </c>
       <c r="L85">
-        <v>865.01212996865593</v>
+        <v>678.22645978555931</v>
       </c>
       <c r="R85">
-        <v>0.61871956979137455</v>
+        <v>0.60988622748402355</v>
       </c>
       <c r="S85">
-        <v>7023.93938879303</v>
+        <v>14490.884327018615</v>
       </c>
       <c r="T85">
-        <v>6996.99</v>
+        <v>14434.42</v>
       </c>
       <c r="U85">
-        <v>7067.0599999999995</v>
+        <v>14624.61</v>
       </c>
       <c r="V85">
-        <v>70.069999999999993</v>
+        <v>190.19</v>
       </c>
       <c r="W85">
-        <v>14.976765380233786</v>
+        <v>15.376514455045596</v>
       </c>
       <c r="X85">
-        <v>16.469354206759974</v>
+        <v>15.376514455045596</v>
       </c>
       <c r="Y85">
-        <v>0.20575066429935202</v>
+        <v>7.0171250114468897E-2</v>
       </c>
       <c r="Z85">
-        <v>7027.0199999999995</v>
+        <v>14504.49</v>
       </c>
       <c r="AA85">
-        <v>4.2376402808803615</v>
+        <v>4.1330064743730759</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>8738.73</v>
+        <v>15865.85</v>
       </c>
       <c r="E86">
-        <v>9689.68</v>
+        <v>16736.72</v>
       </c>
       <c r="F86">
-        <v>950.95000000000073</v>
+        <v>870.8700000000008</v>
       </c>
       <c r="G86">
         <v>-1</v>
       </c>
       <c r="H86">
-        <v>482.10785664452567</v>
+        <v>374.70408132734099</v>
       </c>
       <c r="I86">
-        <v>555.81659991442666</v>
+        <v>484.31437727767826</v>
       </c>
       <c r="J86">
-        <v>644.01170664678159</v>
+        <v>571.42565069282045</v>
       </c>
       <c r="K86">
-        <v>787.45386727592415</v>
+        <v>656.82835555102281</v>
       </c>
       <c r="L86">
-        <v>863.08954536100805</v>
+        <v>706.56669720503396</v>
       </c>
       <c r="R86">
-        <v>0.61223631844276016</v>
+        <v>0.57047488611084141</v>
       </c>
       <c r="S86">
-        <v>8767.0894371473096</v>
+        <v>15938.265238095202</v>
       </c>
       <c r="T86">
-        <v>8738.73</v>
+        <v>15865.85</v>
       </c>
       <c r="U86">
-        <v>8828.82</v>
+        <v>15995.98</v>
       </c>
       <c r="V86">
-        <v>90.09</v>
+        <v>130.13</v>
       </c>
       <c r="W86">
-        <v>15.307770258989857</v>
+        <v>14.615163645831194</v>
       </c>
       <c r="X86">
-        <v>15.55840285225737</v>
+        <v>14.615163645831194</v>
       </c>
       <c r="Y86">
-        <v>0.15961785442549722</v>
+        <v>9.8514835713665816E-2</v>
       </c>
       <c r="Z86">
-        <v>8768.76</v>
+        <v>15945.93</v>
       </c>
       <c r="AA86">
-        <v>3.5299425980732249</v>
+        <v>3.392019752016985</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>10420.41</v>
+        <v>17807.79</v>
       </c>
       <c r="E87">
-        <v>11441.43</v>
+        <v>18538.52</v>
       </c>
       <c r="F87">
-        <v>1021.0200000000004</v>
+        <v>730.72999999999956</v>
       </c>
       <c r="G87">
         <v>-1</v>
       </c>
       <c r="H87">
+        <v>342.78528132727303</v>
+      </c>
+      <c r="I87">
+        <v>443.36702356463417</v>
+      </c>
+      <c r="J87">
+        <v>543.92227860968489</v>
+      </c>
+      <c r="K87">
+        <v>617.03154315937832</v>
+      </c>
+      <c r="L87">
+        <v>648.47030696449053</v>
+      </c>
+      <c r="R87">
+        <v>0.555539315821869</v>
+      </c>
+      <c r="S87">
+        <v>17841.14316309823</v>
+      </c>
+      <c r="T87">
+        <v>17807.79</v>
+      </c>
+      <c r="U87">
+        <v>17907.89</v>
+      </c>
+      <c r="V87">
+        <v>100.1</v>
+      </c>
+      <c r="W87">
+        <v>15.018639311623305</v>
+      </c>
+      <c r="X87">
+        <v>15.018639311623305</v>
+      </c>
+      <c r="Y87">
+        <v>0.12569856888210718</v>
+      </c>
+      <c r="Z87">
+        <v>17847.829999999998</v>
+      </c>
+      <c r="AA87">
+        <v>4.8007696928821009</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" t="s">
+        <v>62</v>
+      </c>
+      <c r="I111" t="s">
+        <v>63</v>
+      </c>
+      <c r="J111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" t="s">
+        <v>65</v>
+      </c>
+      <c r="L111" t="s">
+        <v>66</v>
+      </c>
+      <c r="M111" t="s">
+        <v>67</v>
+      </c>
+      <c r="N111" t="s">
+        <v>68</v>
+      </c>
+      <c r="O111" t="s">
+        <v>69</v>
+      </c>
+      <c r="P111" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>71</v>
+      </c>
+      <c r="R111" t="s">
+        <v>72</v>
+      </c>
+      <c r="S111" t="s">
+        <v>73</v>
+      </c>
+      <c r="T111" t="s">
+        <v>74</v>
+      </c>
+      <c r="U111" t="s">
+        <v>75</v>
+      </c>
+      <c r="V111" t="s">
+        <v>76</v>
+      </c>
+      <c r="W111" t="s">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1791.79</v>
+      </c>
+      <c r="E112">
+        <v>2982.98</v>
+      </c>
+      <c r="F112">
+        <v>1191.19</v>
+      </c>
+      <c r="G112">
+        <v>-1</v>
+      </c>
+      <c r="H112">
+        <v>517.67422273259683</v>
+      </c>
+      <c r="I112">
+        <v>596.1354219481052</v>
+      </c>
+      <c r="J112">
+        <v>723.23533588027908</v>
+      </c>
+      <c r="K112">
+        <v>824.82076537294017</v>
+      </c>
+      <c r="L112">
+        <v>965.21101943673307</v>
+      </c>
+      <c r="R112">
+        <v>0.62762025941300359</v>
+      </c>
+      <c r="S112">
+        <v>1888.2556932482369</v>
+      </c>
+      <c r="T112">
+        <v>1791.79</v>
+      </c>
+      <c r="U112">
+        <v>2072.0700000000002</v>
+      </c>
+      <c r="V112">
+        <v>280.27999999999997</v>
+      </c>
+      <c r="W112">
+        <v>17.548127941254389</v>
+      </c>
+      <c r="X112">
+        <v>17.548127941254389</v>
+      </c>
+      <c r="Y112">
+        <v>5.9416610903985381E-2</v>
+      </c>
+      <c r="Z112">
+        <v>1891.8899999999999</v>
+      </c>
+      <c r="AA112">
+        <v>6.7172860642509651</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>4994.99</v>
+      </c>
+      <c r="D113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113">
+        <v>6006</v>
+      </c>
+      <c r="F113">
+        <v>1011.0100000000002</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>514.19688863533497</v>
+      </c>
+      <c r="I113">
+        <v>616.31232534467449</v>
+      </c>
+      <c r="J113">
+        <v>711.3242174174394</v>
+      </c>
+      <c r="K113">
+        <v>829.77293776876684</v>
+      </c>
+      <c r="L113">
+        <v>904.03255715973262</v>
+      </c>
+      <c r="R113">
+        <v>0.61968384991922498</v>
+      </c>
+      <c r="S113">
+        <v>5018.0291876433366</v>
+      </c>
+      <c r="T113">
+        <v>4994.99</v>
+      </c>
+      <c r="U113">
+        <v>5075.07</v>
+      </c>
+      <c r="V113">
+        <v>80.08</v>
+      </c>
+      <c r="W113">
+        <v>17.507507243424218</v>
+      </c>
+      <c r="X113">
+        <v>17.507507243424218</v>
+      </c>
+      <c r="Y113">
+        <v>0.20921357442836608</v>
+      </c>
+      <c r="Z113">
+        <v>5025.0199999999995</v>
+      </c>
+      <c r="AA113">
+        <v>5.2319045005626768</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>6996.99</v>
+      </c>
+      <c r="D114" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114">
+        <v>7937.9299999999994</v>
+      </c>
+      <c r="F114">
+        <v>940.94000000000051</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>487.43443641553222</v>
+      </c>
+      <c r="I114">
+        <v>555.98662140638146</v>
+      </c>
+      <c r="J114">
+        <v>659.25013309951032</v>
+      </c>
+      <c r="K114">
+        <v>787.81157120969965</v>
+      </c>
+      <c r="L114">
+        <v>865.01212996865593</v>
+      </c>
+      <c r="R114">
+        <v>0.61871956979137455</v>
+      </c>
+      <c r="S114">
+        <v>7023.93938879303</v>
+      </c>
+      <c r="T114">
+        <v>6996.99</v>
+      </c>
+      <c r="U114">
+        <v>7067.0599999999995</v>
+      </c>
+      <c r="V114">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="W114">
+        <v>14.976765380233786</v>
+      </c>
+      <c r="X114">
+        <v>16.469354206759974</v>
+      </c>
+      <c r="Y114">
+        <v>0.20575066429935202</v>
+      </c>
+      <c r="Z114">
+        <v>7027.0199999999995</v>
+      </c>
+      <c r="AA114">
+        <v>4.2376402808803615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>8738.73</v>
+      </c>
+      <c r="E115">
+        <v>9689.68</v>
+      </c>
+      <c r="F115">
+        <v>950.95000000000073</v>
+      </c>
+      <c r="G115">
+        <v>-1</v>
+      </c>
+      <c r="H115">
+        <v>482.10785664452567</v>
+      </c>
+      <c r="I115">
+        <v>555.81659991442666</v>
+      </c>
+      <c r="J115">
+        <v>644.01170664678159</v>
+      </c>
+      <c r="K115">
+        <v>787.45386727592415</v>
+      </c>
+      <c r="L115">
+        <v>863.08954536100805</v>
+      </c>
+      <c r="R115">
+        <v>0.61223631844276016</v>
+      </c>
+      <c r="S115">
+        <v>8767.0894371473096</v>
+      </c>
+      <c r="T115">
+        <v>8738.73</v>
+      </c>
+      <c r="U115">
+        <v>8828.82</v>
+      </c>
+      <c r="V115">
+        <v>90.09</v>
+      </c>
+      <c r="W115">
+        <v>15.307770258989857</v>
+      </c>
+      <c r="X115">
+        <v>15.55840285225737</v>
+      </c>
+      <c r="Y115">
+        <v>0.15961785442549722</v>
+      </c>
+      <c r="Z115">
+        <v>8768.76</v>
+      </c>
+      <c r="AA115">
+        <v>3.5299425980732249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>10420.41</v>
+      </c>
+      <c r="E116">
+        <v>11441.43</v>
+      </c>
+      <c r="F116">
+        <v>1021.0200000000004</v>
+      </c>
+      <c r="G116">
+        <v>-1</v>
+      </c>
+      <c r="H116">
         <v>420.07778826887858</v>
       </c>
-      <c r="I87">
+      <c r="I116">
         <v>506.85902696647418</v>
       </c>
-      <c r="J87">
+      <c r="J116">
         <v>589.83903799425798</v>
       </c>
-      <c r="K87">
+      <c r="K116">
         <v>727.81726709637724</v>
       </c>
-      <c r="L87">
+      <c r="L116">
         <v>782.47394353181608</v>
       </c>
-      <c r="R87">
+      <c r="R116">
         <v>0.57717480370419971</v>
       </c>
-      <c r="S87">
+      <c r="S116">
         <v>10472.73174457861</v>
       </c>
-      <c r="T87">
+      <c r="T116">
         <v>10420.41</v>
       </c>
-      <c r="U87">
+      <c r="U116">
         <v>10580.57</v>
       </c>
-      <c r="V87">
+      <c r="V116">
         <v>160.16</v>
       </c>
-      <c r="W87">
+      <c r="W116">
         <v>16.10767663643437</v>
       </c>
-      <c r="X87">
+      <c r="X116">
         <v>16.10767663643437</v>
       </c>
-      <c r="Y87">
+      <c r="Y116">
         <v>9.3654250012822654E-2</v>
       </c>
-      <c r="Z87">
+      <c r="Z116">
         <v>10480.469999999999</v>
       </c>
-      <c r="AA87">
+      <c r="AA116">
         <v>2.7813900658581705</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A88">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A117">
         <v>117</v>
       </c>
-      <c r="B88">
+      <c r="B117">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C117">
         <v>11991.98</v>
       </c>
-      <c r="D88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88">
+      <c r="D117" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117">
         <v>12822.81</v>
       </c>
-      <c r="F88">
+      <c r="F117">
         <v>830.82999999999993</v>
       </c>
-      <c r="G88">
+      <c r="G117">
         <v>8</v>
       </c>
-      <c r="H88">
+      <c r="H117">
         <v>411.0808852458423</v>
       </c>
-      <c r="I88">
+      <c r="I117">
         <v>489.76316178895189</v>
       </c>
-      <c r="J88">
+      <c r="J117">
         <v>586.17545564570219</v>
       </c>
-      <c r="K88">
+      <c r="K117">
         <v>722.75317864109172</v>
       </c>
-      <c r="L88">
+      <c r="L117">
         <v>767.06274399438973</v>
       </c>
-      <c r="R88">
+      <c r="R117">
         <v>0.56877077457998815</v>
       </c>
-      <c r="S88">
+      <c r="S117">
         <v>12020.774028078184</v>
       </c>
-      <c r="T88">
+      <c r="T117">
         <v>11991.98</v>
       </c>
-      <c r="U88">
+      <c r="U117">
         <v>12172.16</v>
       </c>
-      <c r="V88">
+      <c r="V117">
         <v>180.18</v>
       </c>
-      <c r="W88">
+      <c r="W117">
         <v>15.623222341136852</v>
       </c>
-      <c r="X88">
+      <c r="X117">
         <v>15.623222341136852</v>
       </c>
-      <c r="Y88">
+      <c r="Y117">
         <v>8.1623981164414786E-2</v>
       </c>
-      <c r="Z88">
+      <c r="Z117">
         <v>12022.01</v>
       </c>
-      <c r="AA88">
+      <c r="AA117">
         <v>3.4820411878960229</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A89">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B89">
+      <c r="B118">
         <v>7</v>
       </c>
-      <c r="C89">
+      <c r="C118">
         <v>13002.99</v>
       </c>
-      <c r="D89" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89">
+      <c r="D118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118">
         <v>14014</v>
       </c>
-      <c r="F89">
+      <c r="F118">
         <v>1011.0100000000002</v>
       </c>
-      <c r="G89">
+      <c r="G118">
         <v>9</v>
       </c>
-      <c r="H89">
+      <c r="H118">
         <v>390.92664836915816</v>
       </c>
-      <c r="I89">
+      <c r="I118">
         <v>467.29427753234893</v>
       </c>
-      <c r="J89">
+      <c r="J118">
         <v>549.11590832259196</v>
       </c>
-      <c r="K89">
+      <c r="K118">
         <v>660.07647680122443</v>
       </c>
-      <c r="L89">
+      <c r="L118">
         <v>728.55173862065737</v>
       </c>
-      <c r="R89">
+      <c r="R118">
         <v>0.59224447788779766</v>
       </c>
-      <c r="S89">
+      <c r="S118">
         <v>13027.867855267672</v>
       </c>
-      <c r="T89">
+      <c r="T118">
         <v>13002.99</v>
       </c>
-      <c r="U89">
+      <c r="U118">
         <v>13083.07</v>
       </c>
-      <c r="V89">
+      <c r="V118">
         <v>80.08</v>
       </c>
-      <c r="W89">
+      <c r="W118">
         <v>13.182867969784644</v>
       </c>
-      <c r="X89">
+      <c r="X118">
         <v>13.182867969784644</v>
       </c>
-      <c r="Y89">
+      <c r="Y118">
         <v>0.16674049144555683</v>
       </c>
-      <c r="Z89">
+      <c r="Z118">
         <v>13033.02</v>
       </c>
-      <c r="AA89">
+      <c r="AA118">
         <v>3.9649694853223973</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A90">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A119">
         <v>117</v>
       </c>
-      <c r="B90">
+      <c r="B119">
         <v>8</v>
       </c>
-      <c r="C90">
+      <c r="C119">
         <v>14434.42</v>
       </c>
-      <c r="E90">
+      <c r="E119">
         <v>15185.17</v>
       </c>
-      <c r="F90">
+      <c r="F119">
         <v>750.75</v>
       </c>
-      <c r="G90">
+      <c r="G119">
         <v>-1</v>
       </c>
-      <c r="H90">
+      <c r="H119">
         <v>417.73812853978131</v>
       </c>
-      <c r="I90">
+      <c r="I119">
         <v>500.59073702596851</v>
       </c>
-      <c r="J90">
+      <c r="J119">
         <v>586.42775101783729</v>
       </c>
-      <c r="K90">
+      <c r="K119">
         <v>687.05533757993237</v>
       </c>
-      <c r="L90">
+      <c r="L119">
         <v>687.05533757993237</v>
       </c>
-      <c r="P90" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>13</v>
-      </c>
-      <c r="R90">
+      <c r="P119" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>47</v>
+      </c>
+      <c r="R119">
         <v>0.60801234731864884</v>
       </c>
-      <c r="S90">
+      <c r="S119">
         <v>14498.114662420068</v>
       </c>
-      <c r="T90">
+      <c r="T119">
         <v>14434.42</v>
       </c>
-      <c r="U90">
+      <c r="U119">
         <v>14554.539999999999</v>
       </c>
-      <c r="V90">
+      <c r="V119">
         <v>120.12</v>
       </c>
-      <c r="W90">
+      <c r="W119">
         <v>13.881453793275961</v>
       </c>
-      <c r="X90">
+      <c r="X119">
         <v>14.183367151766451</v>
       </c>
-      <c r="Y90">
+      <c r="Y119">
         <v>0.11029924965910741</v>
       </c>
-      <c r="Z90">
+      <c r="Z119">
         <v>14504.49</v>
       </c>
-      <c r="AA90">
+      <c r="AA119">
         <v>3.3547885552350643</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A91">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A120">
         <v>117</v>
       </c>
-      <c r="B91">
+      <c r="B120">
         <v>9</v>
       </c>
-      <c r="C91">
+      <c r="C120">
         <v>15925.91</v>
       </c>
-      <c r="E91">
+      <c r="E120">
         <v>16546.53</v>
       </c>
-      <c r="F91">
+      <c r="F120">
         <v>620.61999999999898</v>
       </c>
-      <c r="G91">
+      <c r="G120">
         <v>-1</v>
       </c>
-      <c r="H91">
+      <c r="H120">
         <v>401.3166157017763</v>
       </c>
-      <c r="I91">
+      <c r="I120">
         <v>488.14590274300832</v>
       </c>
-      <c r="J91">
+      <c r="J120">
         <v>565.34658909805387</v>
       </c>
-      <c r="K91">
+      <c r="K120">
         <v>597.37997145391387</v>
       </c>
-      <c r="L91">
+      <c r="L120">
         <v>597.37997145391387</v>
       </c>
-      <c r="P91" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>13</v>
-      </c>
-      <c r="R91">
+      <c r="P120" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>47</v>
+      </c>
+      <c r="R120">
         <v>0.67179456104804602</v>
       </c>
-      <c r="S91">
+      <c r="S120">
         <v>15949.150028546084</v>
       </c>
-      <c r="T91">
+      <c r="T120">
         <v>15925.91</v>
       </c>
-      <c r="U91">
+      <c r="U120">
         <v>16056.039999999999</v>
       </c>
-      <c r="V91">
+      <c r="V120">
         <v>130.13</v>
       </c>
-      <c r="W91">
+      <c r="W120">
         <v>14.120471380597907</v>
       </c>
-      <c r="X91">
+      <c r="X120">
         <v>14.120471380597907</v>
       </c>
-      <c r="Y91">
+      <c r="Y120">
         <v>9.2504605313887517E-2</v>
       </c>
-      <c r="Z91">
+      <c r="Z120">
         <v>15955.94</v>
       </c>
-      <c r="AA91">
+      <c r="AA120">
         <v>3.3219796651850082</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A92">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A121">
         <v>117</v>
       </c>
-      <c r="B92">
+      <c r="B121">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="C121">
         <v>17807.79</v>
       </c>
-      <c r="E92">
+      <c r="E121">
         <v>18768.75</v>
       </c>
-      <c r="F92">
+      <c r="F121">
         <v>960.95999999999913</v>
       </c>
-      <c r="G92">
+      <c r="G121">
         <v>-1</v>
       </c>
-      <c r="H92">
+      <c r="H121">
         <v>475.73990720827607</v>
       </c>
-      <c r="I92">
+      <c r="I121">
         <v>501.02200915816752</v>
       </c>
-      <c r="J92">
+      <c r="J121">
         <v>577.61656917386711</v>
       </c>
-      <c r="K92">
+      <c r="K121">
         <v>711.65290886861283</v>
       </c>
-      <c r="L92">
+      <c r="L121">
         <v>859.88146624672197</v>
       </c>
-      <c r="R92">
+      <c r="R121">
         <v>0.66849991235841122</v>
       </c>
-      <c r="S92">
+      <c r="S121">
         <v>17846.032948885448</v>
       </c>
-      <c r="T92">
+      <c r="T121">
         <v>17807.79</v>
       </c>
-      <c r="U92">
+      <c r="U121">
         <v>17987.97</v>
       </c>
-      <c r="V92">
+      <c r="V121">
         <v>180.18</v>
       </c>
-      <c r="W92">
+      <c r="W121">
         <v>13.449341368492435</v>
       </c>
-      <c r="X92">
+      <c r="X121">
         <v>13.449341368492435</v>
       </c>
-      <c r="Y92">
+      <c r="Y121">
         <v>7.2180188981324389E-2</v>
       </c>
-      <c r="Z92">
+      <c r="Z121">
         <v>17847.829999999998</v>
       </c>
-      <c r="AA92">
+      <c r="AA121">
         <v>2.3210836638111427</v>
       </c>
     </row>
@@ -3230,51 +3581,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3318,7 +3669,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>964.9639999999996</v>
@@ -3362,7 +3713,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>88.556918570299672</v>
@@ -3406,7 +3757,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>28.004156524820893</v>
@@ -3450,51 +3801,51 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -3538,7 +3889,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>866.86599999999999</v>
@@ -3582,7 +3933,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>101.5575220913416</v>
@@ -3626,7 +3977,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>32.115308333150615</v>
@@ -3670,51 +4021,51 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -3758,7 +4109,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>928.92800000000011</v>
@@ -3802,7 +4153,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>159.44938185309286</v>
@@ -3846,7 +4197,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>50.422321816169287</v>
@@ -3915,51 +4266,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -4003,7 +4354,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>960.95999999999981</v>
@@ -4047,7 +4398,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>114.71535700739196</v>
@@ -4091,7 +4442,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>57.357678503695979</v>
@@ -4135,51 +4486,51 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -4223,7 +4574,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>883.38249999999994</v>
@@ -4267,7 +4618,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>62.445607464949852</v>
@@ -4311,7 +4662,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>31.222803732474926</v>
@@ -4355,51 +4706,51 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4443,7 +4794,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>948.44750000000022</v>
@@ -4487,7 +4838,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>85.085000000000122</v>
@@ -4531,7 +4882,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>42.542500000000061</v>
@@ -4594,16 +4945,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -32585,13 +32936,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.07421875" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="15.53515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32610,20 +32961,236 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>45617.557870370372</v>
-      </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>45617.557870370372</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
